--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Galr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H2">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I2">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J2">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8591896666666666</v>
+        <v>0.4399053333333334</v>
       </c>
       <c r="N2">
-        <v>2.577569</v>
+        <v>1.319716</v>
       </c>
       <c r="O2">
-        <v>0.2409726039012864</v>
+        <v>0.1287312415532426</v>
       </c>
       <c r="P2">
-        <v>0.2409726039012864</v>
+        <v>0.1287312415532426</v>
       </c>
       <c r="Q2">
-        <v>1.411440698434</v>
+        <v>0.467053944344889</v>
       </c>
       <c r="R2">
-        <v>12.702966285906</v>
+        <v>4.203485499104</v>
       </c>
       <c r="S2">
-        <v>0.02002771209953727</v>
+        <v>0.01265058637224316</v>
       </c>
       <c r="T2">
-        <v>0.02002771209953727</v>
+        <v>0.01265058637224316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H3">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I3">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J3">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.875639</v>
       </c>
       <c r="O3">
-        <v>0.4558153149392564</v>
+        <v>0.4755925228120367</v>
       </c>
       <c r="P3">
-        <v>0.4558153149392564</v>
+        <v>0.4755925228120368</v>
       </c>
       <c r="Q3">
-        <v>2.669831657454</v>
+        <v>1.725512478557333</v>
       </c>
       <c r="R3">
-        <v>24.028484917086</v>
+        <v>15.529612307016</v>
       </c>
       <c r="S3">
-        <v>0.03788371686394264</v>
+        <v>0.0467370951700042</v>
       </c>
       <c r="T3">
-        <v>0.03788371686394265</v>
+        <v>0.0467370951700042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H4">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I4">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J4">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9085246666666666</v>
+        <v>1.160083666666667</v>
       </c>
       <c r="N4">
-        <v>2.725574</v>
+        <v>3.480251</v>
       </c>
       <c r="O4">
-        <v>0.2548093431856314</v>
+        <v>0.3394798821465482</v>
       </c>
       <c r="P4">
-        <v>0.2548093431856315</v>
+        <v>0.3394798821465482</v>
       </c>
       <c r="Q4">
-        <v>1.492486164364</v>
+        <v>1.231677843460445</v>
       </c>
       <c r="R4">
-        <v>13.432375479276</v>
+        <v>11.085100591144</v>
       </c>
       <c r="S4">
-        <v>0.02117771100520847</v>
+        <v>0.03336112911610197</v>
       </c>
       <c r="T4">
-        <v>0.02117771100520847</v>
+        <v>0.03336112911610196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H5">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I5">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J5">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1725803333333333</v>
+        <v>0.1920363333333333</v>
       </c>
       <c r="N5">
-        <v>0.517741</v>
+        <v>0.576109</v>
       </c>
       <c r="O5">
-        <v>0.0484027379738257</v>
+        <v>0.05619635348817247</v>
       </c>
       <c r="P5">
-        <v>0.0484027379738257</v>
+        <v>0.05619635348817247</v>
       </c>
       <c r="Q5">
-        <v>0.283507723226</v>
+        <v>0.2038877916328889</v>
       </c>
       <c r="R5">
-        <v>2.551569509034</v>
+        <v>1.834990124696</v>
       </c>
       <c r="S5">
-        <v>0.004022847764745202</v>
+        <v>0.005522488675083604</v>
       </c>
       <c r="T5">
-        <v>0.004022847764745202</v>
+        <v>0.005522488675083604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H6">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I6">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J6">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8591896666666666</v>
+        <v>0.4399053333333334</v>
       </c>
       <c r="N6">
-        <v>2.577569</v>
+        <v>1.319716</v>
       </c>
       <c r="O6">
-        <v>0.2409726039012864</v>
+        <v>0.1287312415532426</v>
       </c>
       <c r="P6">
-        <v>0.2409726039012864</v>
+        <v>0.1287312415532426</v>
       </c>
       <c r="Q6">
-        <v>15.22334590331333</v>
+        <v>0.722658005576</v>
       </c>
       <c r="R6">
-        <v>137.01011312982</v>
+        <v>6.503922050184</v>
       </c>
       <c r="S6">
-        <v>0.2160124681692295</v>
+        <v>0.01957385785480351</v>
       </c>
       <c r="T6">
-        <v>0.2160124681692296</v>
+        <v>0.01957385785480352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H7">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I7">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J7">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.875639</v>
       </c>
       <c r="O7">
-        <v>0.4558153149392564</v>
+        <v>0.4755925228120367</v>
       </c>
       <c r="P7">
-        <v>0.4558153149392564</v>
+        <v>0.4755925228120368</v>
       </c>
       <c r="Q7">
-        <v>28.79594648938</v>
+        <v>2.669831657454</v>
       </c>
       <c r="R7">
-        <v>259.16351840442</v>
+        <v>24.028484917086</v>
       </c>
       <c r="S7">
-        <v>0.4086015987514414</v>
+        <v>0.07231485011724971</v>
       </c>
       <c r="T7">
-        <v>0.4086015987514415</v>
+        <v>0.07231485011724972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H8">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I8">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J8">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9085246666666666</v>
+        <v>1.160083666666667</v>
       </c>
       <c r="N8">
-        <v>2.725574</v>
+        <v>3.480251</v>
       </c>
       <c r="O8">
-        <v>0.2548093431856314</v>
+        <v>0.3394798821465482</v>
       </c>
       <c r="P8">
-        <v>0.2548093431856315</v>
+        <v>0.3394798821465482</v>
       </c>
       <c r="Q8">
-        <v>16.09747626041333</v>
+        <v>1.905736724086</v>
       </c>
       <c r="R8">
-        <v>144.87728634372</v>
+        <v>17.151630516774</v>
       </c>
       <c r="S8">
-        <v>0.2284159868922538</v>
+        <v>0.05161863489799152</v>
       </c>
       <c r="T8">
-        <v>0.2284159868922538</v>
+        <v>0.05161863489799152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H9">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I9">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J9">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1725803333333333</v>
+        <v>0.1920363333333333</v>
       </c>
       <c r="N9">
-        <v>0.517741</v>
+        <v>0.576109</v>
       </c>
       <c r="O9">
-        <v>0.0484027379738257</v>
+        <v>0.05619635348817247</v>
       </c>
       <c r="P9">
-        <v>0.0484027379738257</v>
+        <v>0.05619635348817247</v>
       </c>
       <c r="Q9">
-        <v>3.057823216886667</v>
+        <v>0.315469222874</v>
       </c>
       <c r="R9">
-        <v>27.52040895198</v>
+        <v>2.839223005866</v>
       </c>
       <c r="S9">
-        <v>0.04338914352337613</v>
+        <v>0.008544774538516616</v>
       </c>
       <c r="T9">
-        <v>0.04338914352337613</v>
+        <v>0.008544774538516618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.792831666666667</v>
+      </c>
+      <c r="H10">
+        <v>23.378495</v>
+      </c>
+      <c r="I10">
+        <v>0.7212970842480482</v>
+      </c>
+      <c r="J10">
+        <v>0.7212970842480481</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.4045783333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.213735</v>
-      </c>
-      <c r="I10">
-        <v>0.02046881493026545</v>
-      </c>
-      <c r="J10">
-        <v>0.02046881493026545</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.8591896666666666</v>
+        <v>0.4399053333333334</v>
       </c>
       <c r="N10">
-        <v>2.577569</v>
+        <v>1.319716</v>
       </c>
       <c r="O10">
-        <v>0.2409726039012864</v>
+        <v>0.1287312415532426</v>
       </c>
       <c r="P10">
-        <v>0.2409726039012864</v>
+        <v>0.1287312415532426</v>
       </c>
       <c r="Q10">
-        <v>0.3476095233572222</v>
+        <v>3.428108211935556</v>
       </c>
       <c r="R10">
-        <v>3.128485710215</v>
+        <v>30.85297390742</v>
       </c>
       <c r="S10">
-        <v>0.004932423632519593</v>
+        <v>0.09285346918398504</v>
       </c>
       <c r="T10">
-        <v>0.004932423632519593</v>
+        <v>0.09285346918398504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4045783333333333</v>
+        <v>7.792831666666667</v>
       </c>
       <c r="H11">
-        <v>1.213735</v>
+        <v>23.378495</v>
       </c>
       <c r="I11">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480482</v>
       </c>
       <c r="J11">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480481</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.875639</v>
       </c>
       <c r="O11">
-        <v>0.4558153149392564</v>
+        <v>0.4755925228120367</v>
       </c>
       <c r="P11">
-        <v>0.4558153149392564</v>
+        <v>0.4755925228120368</v>
       </c>
       <c r="Q11">
-        <v>0.6575259668516665</v>
+        <v>12.66501133147833</v>
       </c>
       <c r="R11">
-        <v>5.917733701665</v>
+        <v>113.985101983305</v>
       </c>
       <c r="S11">
-        <v>0.009329999323872297</v>
+        <v>0.3430434999944954</v>
       </c>
       <c r="T11">
-        <v>0.009329999323872299</v>
+        <v>0.3430434999944955</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4045783333333333</v>
+        <v>7.792831666666667</v>
       </c>
       <c r="H12">
-        <v>1.213735</v>
+        <v>23.378495</v>
       </c>
       <c r="I12">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480482</v>
       </c>
       <c r="J12">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480481</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9085246666666666</v>
+        <v>1.160083666666667</v>
       </c>
       <c r="N12">
-        <v>2.725574</v>
+        <v>3.480251</v>
       </c>
       <c r="O12">
-        <v>0.2548093431856314</v>
+        <v>0.3394798821465482</v>
       </c>
       <c r="P12">
-        <v>0.2548093431856315</v>
+        <v>0.3394798821465482</v>
       </c>
       <c r="Q12">
-        <v>0.3675693954322222</v>
+        <v>9.040336733582778</v>
       </c>
       <c r="R12">
-        <v>3.30812455889</v>
+        <v>81.363030602245</v>
       </c>
       <c r="S12">
-        <v>0.005215645288169184</v>
+        <v>0.2448658491531762</v>
       </c>
       <c r="T12">
-        <v>0.005215645288169185</v>
+        <v>0.2448658491531762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.792831666666667</v>
+      </c>
+      <c r="H13">
+        <v>23.378495</v>
+      </c>
+      <c r="I13">
+        <v>0.7212970842480482</v>
+      </c>
+      <c r="J13">
+        <v>0.7212970842480481</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1920363333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.576109</v>
+      </c>
+      <c r="O13">
+        <v>0.05619635348817247</v>
+      </c>
+      <c r="P13">
+        <v>0.05619635348817247</v>
+      </c>
+      <c r="Q13">
+        <v>1.496506819550556</v>
+      </c>
+      <c r="R13">
+        <v>13.468561375955</v>
+      </c>
+      <c r="S13">
+        <v>0.04053426591639143</v>
+      </c>
+      <c r="T13">
+        <v>0.04053426591639143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.919829</v>
+      </c>
+      <c r="I14">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J14">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4399053333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.319716</v>
+      </c>
+      <c r="O14">
+        <v>0.1287312415532426</v>
+      </c>
+      <c r="P14">
+        <v>0.1287312415532426</v>
+      </c>
+      <c r="Q14">
+        <v>0.1348792276182222</v>
+      </c>
+      <c r="R14">
+        <v>1.213913048564</v>
+      </c>
+      <c r="S14">
+        <v>0.003653328142210855</v>
+      </c>
+      <c r="T14">
+        <v>0.003653328142210856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.919829</v>
+      </c>
+      <c r="I15">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J15">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.625213</v>
+      </c>
+      <c r="N15">
+        <v>4.875639</v>
+      </c>
+      <c r="O15">
+        <v>0.4755925228120367</v>
+      </c>
+      <c r="P15">
+        <v>0.4755925228120368</v>
+      </c>
+      <c r="Q15">
+        <v>0.4983060161923333</v>
+      </c>
+      <c r="R15">
+        <v>4.484754145730999</v>
+      </c>
+      <c r="S15">
+        <v>0.01349707753028742</v>
+      </c>
+      <c r="T15">
+        <v>0.01349707753028742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.4045783333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.213735</v>
-      </c>
-      <c r="I13">
-        <v>0.02046881493026545</v>
-      </c>
-      <c r="J13">
-        <v>0.02046881493026545</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.1725803333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.517741</v>
-      </c>
-      <c r="O13">
-        <v>0.0484027379738257</v>
-      </c>
-      <c r="P13">
-        <v>0.0484027379738257</v>
-      </c>
-      <c r="Q13">
-        <v>0.0698222636261111</v>
-      </c>
-      <c r="R13">
-        <v>0.628400372635</v>
-      </c>
-      <c r="S13">
-        <v>0.0009907466857043698</v>
-      </c>
-      <c r="T13">
-        <v>0.0009907466857043698</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.919829</v>
+      </c>
+      <c r="I16">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J16">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.160083666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.480251</v>
+      </c>
+      <c r="O16">
+        <v>0.3394798821465482</v>
+      </c>
+      <c r="P16">
+        <v>0.3394798821465482</v>
+      </c>
+      <c r="Q16">
+        <v>0.3556928663421111</v>
+      </c>
+      <c r="R16">
+        <v>3.201235797079</v>
+      </c>
+      <c r="S16">
+        <v>0.009634268979278474</v>
+      </c>
+      <c r="T16">
+        <v>0.009634268979278474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.919829</v>
+      </c>
+      <c r="I17">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J17">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1920363333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.576109</v>
+      </c>
+      <c r="O17">
+        <v>0.05619635348817247</v>
+      </c>
+      <c r="P17">
+        <v>0.05619635348817247</v>
+      </c>
+      <c r="Q17">
+        <v>0.05888019615122222</v>
+      </c>
+      <c r="R17">
+        <v>0.529921765361</v>
+      </c>
+      <c r="S17">
+        <v>0.001594824358180816</v>
+      </c>
+      <c r="T17">
+        <v>0.001594824358180816</v>
       </c>
     </row>
   </sheetData>
